--- a/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/FillAtReservedPosition-MoveFill-Output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/FillAtReservedPosition-MoveFill-Output.xlsx
@@ -442,7 +442,7 @@
     <x:col min="1" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A1" s="3"/>
       <x:c r="B1" s="4"/>
     </x:row>
